--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H2">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I2">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J2">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N2">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O2">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P2">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q2">
-        <v>1.033119943856</v>
+        <v>5.052275686432889</v>
       </c>
       <c r="R2">
-        <v>9.298079494704002</v>
+        <v>45.470481177896</v>
       </c>
       <c r="S2">
-        <v>0.03622914102117331</v>
+        <v>0.07323980116670838</v>
       </c>
       <c r="T2">
-        <v>0.0362291410211733</v>
+        <v>0.07323980116670835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H3">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I3">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J3">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N3">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O3">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P3">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q3">
-        <v>0.1792523761600001</v>
+        <v>0.4456321201022223</v>
       </c>
       <c r="R3">
-        <v>1.61327138544</v>
+        <v>4.010689080920001</v>
       </c>
       <c r="S3">
-        <v>0.006285968684374003</v>
+        <v>0.006460060751916176</v>
       </c>
       <c r="T3">
-        <v>0.006285968684374002</v>
+        <v>0.006460060751916174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H4">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I4">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J4">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N4">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O4">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P4">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q4">
-        <v>0.171447330912</v>
+        <v>0.5055880858411111</v>
       </c>
       <c r="R4">
-        <v>1.543025978208</v>
+        <v>4.550292772570001</v>
       </c>
       <c r="S4">
-        <v>0.006012263693343605</v>
+        <v>0.007329206317599774</v>
       </c>
       <c r="T4">
-        <v>0.006012263693343604</v>
+        <v>0.007329206317599772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H5">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I5">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J5">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N5">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O5">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P5">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q5">
-        <v>0.05205363134400001</v>
+        <v>0.7761081530095557</v>
       </c>
       <c r="R5">
-        <v>0.4684826820960001</v>
+        <v>6.984973377086002</v>
       </c>
       <c r="S5">
-        <v>0.00182540116647753</v>
+        <v>0.01125077298590843</v>
       </c>
       <c r="T5">
-        <v>0.00182540116647753</v>
+        <v>0.01125077298590843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>6.120873</v>
       </c>
       <c r="I6">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J6">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N6">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O6">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P6">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q6">
-        <v>3.911973711954</v>
+        <v>7.695213222971999</v>
       </c>
       <c r="R6">
-        <v>35.207763407586</v>
+        <v>69.25691900674799</v>
       </c>
       <c r="S6">
-        <v>0.1371839234392505</v>
+        <v>0.111552876637224</v>
       </c>
       <c r="T6">
-        <v>0.1371839234392504</v>
+        <v>0.111552876637224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.120873</v>
       </c>
       <c r="I7">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J7">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N7">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O7">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P7">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q7">
-        <v>0.6787504079400001</v>
+        <v>0.67875040794</v>
       </c>
       <c r="R7">
-        <v>6.108753671460001</v>
+        <v>6.10875367146</v>
       </c>
       <c r="S7">
-        <v>0.02380221618378193</v>
+        <v>0.00983943632625601</v>
       </c>
       <c r="T7">
-        <v>0.02380221618378193</v>
+        <v>0.009839436326256008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.120873</v>
       </c>
       <c r="I8">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J8">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N8">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O8">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P8">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q8">
-        <v>0.6491961127079999</v>
+        <v>0.770070432615</v>
       </c>
       <c r="R8">
-        <v>5.842765014372</v>
+        <v>6.930633893535</v>
       </c>
       <c r="S8">
-        <v>0.02276581500296148</v>
+        <v>0.01116324778565364</v>
       </c>
       <c r="T8">
-        <v>0.02276581500296147</v>
+        <v>0.01116324778565364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>6.120873</v>
       </c>
       <c r="I9">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J9">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N9">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O9">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P9">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q9">
-        <v>0.197104352346</v>
+        <v>1.182104479677</v>
       </c>
       <c r="R9">
-        <v>1.773939171114</v>
+        <v>10.638940317093</v>
       </c>
       <c r="S9">
-        <v>0.006911996442908271</v>
+        <v>0.01713625748537599</v>
       </c>
       <c r="T9">
-        <v>0.006911996442908268</v>
+        <v>0.01713625748537599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H10">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I10">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J10">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.917360666666667</v>
+        <v>3.771625333333333</v>
       </c>
       <c r="N10">
-        <v>5.752082000000001</v>
+        <v>11.314876</v>
       </c>
       <c r="O10">
-        <v>0.7195063496280686</v>
+        <v>0.7452169260344172</v>
       </c>
       <c r="P10">
-        <v>0.7195063496280685</v>
+        <v>0.7452169260344171</v>
       </c>
       <c r="Q10">
-        <v>15.54160084629756</v>
+        <v>38.65955065849288</v>
       </c>
       <c r="R10">
-        <v>139.874407616678</v>
+        <v>347.935955926436</v>
       </c>
       <c r="S10">
-        <v>0.5450082075211411</v>
+        <v>0.5604242482304849</v>
       </c>
       <c r="T10">
-        <v>0.545008207521141</v>
+        <v>0.5604242482304848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H11">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I11">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J11">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3326733333333334</v>
+        <v>0.3326733333333333</v>
       </c>
       <c r="N11">
-        <v>0.9980200000000001</v>
+        <v>0.99802</v>
       </c>
       <c r="O11">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519563</v>
       </c>
       <c r="P11">
-        <v>0.1248385761982887</v>
+        <v>0.06573129007519561</v>
       </c>
       <c r="Q11">
-        <v>2.696558998397778</v>
+        <v>3.409936153802222</v>
       </c>
       <c r="R11">
-        <v>24.26903098558</v>
+        <v>30.68942538422</v>
       </c>
       <c r="S11">
-        <v>0.09456212398749692</v>
+        <v>0.04943179299702343</v>
       </c>
       <c r="T11">
-        <v>0.0945621239874969</v>
+        <v>0.04943179299702342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H12">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I12">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J12">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.318188</v>
+        <v>0.3774316666666667</v>
       </c>
       <c r="N12">
-        <v>0.954564</v>
+        <v>1.132295</v>
       </c>
       <c r="O12">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698085</v>
       </c>
       <c r="P12">
-        <v>0.1194028282500784</v>
+        <v>0.07457486933698083</v>
       </c>
       <c r="Q12">
-        <v>2.579144850550666</v>
+        <v>3.868713710416111</v>
       </c>
       <c r="R12">
-        <v>23.212303654956</v>
+        <v>34.818423393745</v>
       </c>
       <c r="S12">
-        <v>0.09044467978798119</v>
+        <v>0.05608241523372742</v>
       </c>
       <c r="T12">
-        <v>0.09044467978798118</v>
+        <v>0.05608241523372742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H13">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I13">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J13">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09660600000000001</v>
+        <v>0.5793803333333334</v>
       </c>
       <c r="N13">
-        <v>0.289818</v>
+        <v>1.738141</v>
       </c>
       <c r="O13">
-        <v>0.0362522459235643</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="P13">
-        <v>0.03625224592356429</v>
+        <v>0.1144769145534063</v>
       </c>
       <c r="Q13">
-        <v>0.783061798158</v>
+        <v>5.938708479094556</v>
       </c>
       <c r="R13">
-        <v>7.047556183422</v>
+        <v>53.44837631185101</v>
       </c>
       <c r="S13">
-        <v>0.02746017679987213</v>
+        <v>0.08608988408212191</v>
       </c>
       <c r="T13">
-        <v>0.02746017679987212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.016138</v>
-      </c>
-      <c r="H14">
-        <v>0.048414</v>
-      </c>
-      <c r="I14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>1.917360666666667</v>
-      </c>
-      <c r="N14">
-        <v>5.752082000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.7195063496280686</v>
-      </c>
-      <c r="P14">
-        <v>0.7195063496280685</v>
-      </c>
-      <c r="Q14">
-        <v>0.03094236643866667</v>
-      </c>
-      <c r="R14">
-        <v>0.278481297948</v>
-      </c>
-      <c r="S14">
-        <v>0.001085077646503672</v>
-      </c>
-      <c r="T14">
-        <v>0.001085077646503672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.016138</v>
-      </c>
-      <c r="H15">
-        <v>0.048414</v>
-      </c>
-      <c r="I15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.3326733333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.9980200000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.1248385761982887</v>
-      </c>
-      <c r="P15">
-        <v>0.1248385761982887</v>
-      </c>
-      <c r="Q15">
-        <v>0.005368682253333334</v>
-      </c>
-      <c r="R15">
-        <v>0.04831814028</v>
-      </c>
-      <c r="S15">
-        <v>0.0001882673426358656</v>
-      </c>
-      <c r="T15">
-        <v>0.0001882673426358656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.016138</v>
-      </c>
-      <c r="H16">
-        <v>0.048414</v>
-      </c>
-      <c r="I16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.318188</v>
-      </c>
-      <c r="N16">
-        <v>0.954564</v>
-      </c>
-      <c r="O16">
-        <v>0.1194028282500784</v>
-      </c>
-      <c r="P16">
-        <v>0.1194028282500784</v>
-      </c>
-      <c r="Q16">
-        <v>0.005134917944</v>
-      </c>
-      <c r="R16">
-        <v>0.046214261496</v>
-      </c>
-      <c r="S16">
-        <v>0.0001800697657921308</v>
-      </c>
-      <c r="T16">
-        <v>0.0001800697657921308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.016138</v>
-      </c>
-      <c r="H17">
-        <v>0.048414</v>
-      </c>
-      <c r="I17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.09660600000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.289818</v>
-      </c>
-      <c r="O17">
-        <v>0.0362522459235643</v>
-      </c>
-      <c r="P17">
-        <v>0.03625224592356429</v>
-      </c>
-      <c r="Q17">
-        <v>0.001559027628</v>
-      </c>
-      <c r="R17">
-        <v>0.014031248652</v>
-      </c>
-      <c r="S17">
-        <v>5.467151430636791E-05</v>
-      </c>
-      <c r="T17">
-        <v>5.467151430636789E-05</v>
+        <v>0.08608988408212188</v>
       </c>
     </row>
   </sheetData>
